--- a/meta/5-1-1.xlsx
+++ b/meta/5-1-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21EEB4-9B14-428B-BECB-F51DBA95C2A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53878195-FAE8-49AC-85E3-671B1BA6ABB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Метаданные 5.1.1 Гендер" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +296,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -350,11 +343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -382,33 +372,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,214 +686,206 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="41.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.15625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="15">
         <v>996312624532</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="174.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" ht="144.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -919,7 +903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta/5-1-1.xlsx
+++ b/meta/5-1-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C4AA2-84F0-4970-8F2D-64B41D025FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +272,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{97B33EB1-5B7E-4D0F-B9EA-7D0CA01D266F}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D7965-51D1-4DA4-BCF0-37AE4E7F6D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
